--- a/Coste_Proyecto.xlsx
+++ b/Coste_Proyecto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\césure\Uniraid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\césure\Uniraid\UniR20 JS-BV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEDE6D3-47AC-4BB8-9937-C7EBCADCB4F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91A328-C172-4BCE-BB57-34CDB7F7A341}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{0252D24D-8C4E-46DC-8752-B88423AA2B2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0252D24D-8C4E-46DC-8752-B88423AA2B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Coste TOTAL" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>Item</t>
   </si>
@@ -56,6 +56,219 @@
   </si>
   <si>
     <t>Pre-inscripción</t>
+  </si>
+  <si>
+    <t>A pagar antes del 30 de junio 2019. Plaza asegurada para UniRaid</t>
+  </si>
+  <si>
+    <t>Inscripción</t>
+  </si>
+  <si>
+    <t>Antes del 23 de Enero del 2020</t>
+  </si>
+  <si>
+    <t>Coche</t>
+  </si>
+  <si>
+    <t>Peugeot 205 o Peugeot 206</t>
+  </si>
+  <si>
+    <t>ITV+ Impuestos</t>
+  </si>
+  <si>
+    <t>A verificar</t>
+  </si>
+  <si>
+    <t>Aseguradora</t>
+  </si>
+  <si>
+    <t>Puesta a punto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A verificar (Posibilidad de hacerlo nosotros mismos) </t>
+  </si>
+  <si>
+    <t>Nosotros en el coche?? En un remolque??</t>
+  </si>
+  <si>
+    <t>Equipamiento coche</t>
+  </si>
+  <si>
+    <t>A verificar (carta verde, pasaportes)</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>Manutención</t>
+  </si>
+  <si>
+    <t>Comidas a medio dia, etc</t>
+  </si>
+  <si>
+    <t>A calcular</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Peugeot</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t> en perfecto estado, tanto de mecánica como de chapa. La itv recen pasada, se vende por no emplear, duerme siempre en el garaje. Color Marron</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Kms</t>
+  </si>
+  <si>
+    <t>Beni 648241164</t>
+  </si>
+  <si>
+    <t>205 1.2 60 CV</t>
+  </si>
+  <si>
+    <t>205 SR 65 CV</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Modelo basico y sencillo irrompible. Pocos km y unico dueño. Itv hasta agosto de 2019 ruedas nuevas tapiceria en buen estado. </t>
+  </si>
+  <si>
+    <t>Salazar Car 610973036</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>205 1.1 57 CV</t>
+  </si>
+  <si>
+    <t>Coste Total</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Coste TOTAL</t>
+  </si>
+  <si>
+    <t>Proyecto Solidario</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Extintor de mano</t>
+  </si>
+  <si>
+    <t>Triangulos</t>
+  </si>
+  <si>
+    <t>Chalecos reflectantes</t>
+  </si>
+  <si>
+    <t>Cinta para desatascar(eslinga)</t>
+  </si>
+  <si>
+    <t>Grilletes</t>
+  </si>
+  <si>
+    <t>Botiquín</t>
+  </si>
+  <si>
+    <t>Bomba de inchado manual</t>
+  </si>
+  <si>
+    <t>Sacos de dormir</t>
+  </si>
+  <si>
+    <t>Bidón de combustible 20L</t>
+  </si>
+  <si>
+    <t>Tienda de campaña</t>
+  </si>
+  <si>
+    <t>Movil GPS</t>
+  </si>
+  <si>
+    <t>Brújula</t>
+  </si>
+  <si>
+    <t>Luz frontal</t>
+  </si>
+  <si>
+    <t>Mapa de Marruecos</t>
+  </si>
+  <si>
+    <t>Belcros</t>
+  </si>
+  <si>
+    <t>2ª rueda de recambio</t>
+  </si>
+  <si>
+    <t>Caja de herramientas</t>
+  </si>
+  <si>
+    <t>Rampas de desatasco</t>
+  </si>
+  <si>
+    <t>No obligatorio</t>
+  </si>
+  <si>
+    <t>Gafas tormenta de arena</t>
+  </si>
+  <si>
+    <t>Pala</t>
+  </si>
+  <si>
+    <t>Filtro combustible</t>
+  </si>
+  <si>
+    <t>Filtro aire</t>
+  </si>
+  <si>
+    <t>Walki</t>
+  </si>
+  <si>
+    <t>Toma mechero</t>
+  </si>
+  <si>
+    <t>Anclajes</t>
+  </si>
+  <si>
+    <t>bestek</t>
+  </si>
+  <si>
+    <t>Total estimado</t>
+  </si>
+  <si>
+    <t>Total real</t>
   </si>
   <si>
     <r>
@@ -78,218 +291,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
+      <t>)estimado Maika</t>
     </r>
   </si>
   <si>
-    <t>A pagar antes del 30 de junio 2019. Plaza asegurada para UniRaid</t>
-  </si>
-  <si>
-    <t>Inscripción</t>
-  </si>
-  <si>
-    <t>Antes del 23 de Enero del 2020</t>
-  </si>
-  <si>
-    <t>Coche</t>
-  </si>
-  <si>
-    <t>Peugeot 205 o Peugeot 206</t>
-  </si>
-  <si>
-    <t>ITV+ Impuestos</t>
-  </si>
-  <si>
-    <t>A verificar</t>
-  </si>
-  <si>
-    <t>Aseguradora</t>
-  </si>
-  <si>
-    <t>Puesta a punto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A verificar (Posibilidad de hacerlo nosotros mismos) </t>
-  </si>
-  <si>
-    <t>Nosotros en el coche?? En un remolque??</t>
-  </si>
-  <si>
-    <t>Equipamiento coche</t>
-  </si>
-  <si>
-    <t>A verificar (carta verde, pasaportes)</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>Manutención</t>
-  </si>
-  <si>
-    <t>Comidas a medio dia, etc</t>
-  </si>
-  <si>
-    <t>A calcular</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Origen</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Contacto</t>
-  </si>
-  <si>
-    <t>Peugeot</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t> en perfecto estado, tanto de mecánica como de chapa. La itv recen pasada, se vende por no emplear, duerme siempre en el garaje. Color Marron</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Kms</t>
-  </si>
-  <si>
-    <t>Beni 648241164</t>
-  </si>
-  <si>
-    <t>205 1.2 60 CV</t>
-  </si>
-  <si>
-    <t>205 SR 65 CV</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Modelo basico y sencillo irrompible. Pocos km y unico dueño. Itv hasta agosto de 2019 ruedas nuevas tapiceria en buen estado. </t>
-  </si>
-  <si>
-    <t>Salazar Car 610973036</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>205 1.1 57 CV</t>
-  </si>
-  <si>
-    <t>Coste Total</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Transporte</t>
-  </si>
-  <si>
-    <t>Coste TOTAL</t>
-  </si>
-  <si>
-    <t>Proyecto Solidario</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Extintor de mano</t>
-  </si>
-  <si>
-    <t>Triangulos</t>
-  </si>
-  <si>
-    <t>Chalecos reflectantes</t>
-  </si>
-  <si>
-    <t>Cinta para desatascar(eslinga)</t>
-  </si>
-  <si>
-    <t>Grilletes</t>
-  </si>
-  <si>
-    <t>Botiquín</t>
-  </si>
-  <si>
-    <t>Bomba de inchado manual</t>
-  </si>
-  <si>
-    <t>Sacos de dormir</t>
-  </si>
-  <si>
-    <t>Bidón de combustible 20L</t>
-  </si>
-  <si>
-    <t>Tienda de campaña</t>
-  </si>
-  <si>
-    <t>Movil GPS</t>
-  </si>
-  <si>
-    <t>Brújula</t>
-  </si>
-  <si>
-    <t>Luz frontal</t>
-  </si>
-  <si>
-    <t>Mapa de Marruecos</t>
-  </si>
-  <si>
-    <t>Belcros</t>
-  </si>
-  <si>
-    <t>2ª rueda de recambio</t>
-  </si>
-  <si>
-    <t>Caja de herramientas</t>
-  </si>
-  <si>
-    <t>Rampas de desatasco</t>
-  </si>
-  <si>
-    <t>No obligatorio</t>
-  </si>
-  <si>
-    <t>Gafas tormenta de arena</t>
-  </si>
-  <si>
-    <t>Pala</t>
-  </si>
-  <si>
-    <t>Filtro combustible</t>
-  </si>
-  <si>
-    <t>Filtro aire</t>
-  </si>
-  <si>
-    <t>Walki</t>
-  </si>
-  <si>
-    <t>Toma mechero</t>
-  </si>
-  <si>
-    <t>Con varios Usbs, y otros enchufes tipo mechero(obligado por reglamento)</t>
-  </si>
-  <si>
-    <t>2 o 3</t>
+    <t>TOTAL Estimado Batiste</t>
+  </si>
+  <si>
+    <t>TOTAL real</t>
   </si>
 </sst>
 </file>
@@ -347,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -564,12 +573,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -585,12 +644,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,7 +652,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -915,19 +977,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BFAF8A-A11B-4F7B-8DDC-92AA48C4A0E8}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -935,13 +998,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -949,147 +1018,179 @@
       <c r="C2" s="2">
         <v>400</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <f>1890-C2</f>
         <v>1490</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>600</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>1000</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
         <v>150</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
         <v>300</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="22">
+        <f>'Equipamiento Coche'!C28</f>
+        <v>1246</v>
+      </c>
+      <c r="E10" s="22">
+        <f>'Equipamiento Coche'!D28</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
         <v>300</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
         <v>150</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15">
+      <c r="B14" s="20"/>
+      <c r="C14" s="13">
         <f>SUM(C2:C12)</f>
         <v>4740</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1122,7 +1223,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1244,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B91F7E-FBAD-46C7-A681-762405B44D88}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1168,53 +1269,53 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>1988</v>
@@ -1225,22 +1326,22 @@
     </row>
     <row r="4" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
       </c>
       <c r="G4">
         <v>1995</v>
@@ -1251,16 +1352,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>665191138</v>
@@ -1290,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1412,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1326,13 +1427,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0061F2D-3EFE-4AA8-8C50-DBC1B8D7262C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1374,7 +1477,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1387,24 +1490,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E84D5B8-BDE6-40AC-88AB-28FD121D3B6F}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="67" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1412,269 +1515,383 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <f>90*B3</f>
+        <v>180</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <f>12*B4</f>
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <f>6*B5</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f>15*B8</f>
+        <v>30</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f>50*2</f>
+        <v>100</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <f>140*2</f>
+        <v>280</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f>16*2</f>
+        <v>32</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <f>12*B16</f>
+        <v>24</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f>9*1</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="2">
+        <f>15*2</f>
+        <v>30</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="B28" s="11">
+        <f>SUM(B3:B27)</f>
+        <v>38</v>
+      </c>
+      <c r="C28" s="11">
+        <f>SUM(C3:C27)</f>
+        <v>1246</v>
+      </c>
+      <c r="D28" s="11">
+        <f>SUM(D3:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1694,7 +1911,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Coste_Proyecto.xlsx
+++ b/Coste_Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\césure\Uniraid\UniR20 JS-BV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91A328-C172-4BCE-BB57-34CDB7F7A341}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA3E36-89E6-4C3E-8560-1F70CA114409}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0252D24D-8C4E-46DC-8752-B88423AA2B2C}"/>
   </bookViews>
@@ -21,9 +21,8 @@
     <sheet name="Marketing" sheetId="6" r:id="rId6"/>
     <sheet name="Transporte" sheetId="7" r:id="rId7"/>
     <sheet name="Equipamiento Coche" sheetId="9" r:id="rId8"/>
-    <sheet name="Gasolina" sheetId="8" r:id="rId9"/>
-    <sheet name="Manutención" sheetId="10" r:id="rId10"/>
-    <sheet name="Proyecto solidario" sheetId="11" r:id="rId11"/>
+    <sheet name="Manutención" sheetId="10" r:id="rId9"/>
+    <sheet name="Proyecto solidario" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>Item</t>
   </si>
@@ -88,25 +87,16 @@
     <t xml:space="preserve">A verificar (Posibilidad de hacerlo nosotros mismos) </t>
   </si>
   <si>
-    <t>Nosotros en el coche?? En un remolque??</t>
-  </si>
-  <si>
     <t>Equipamiento coche</t>
   </si>
   <si>
     <t>A verificar (carta verde, pasaportes)</t>
   </si>
   <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
     <t>Manutención</t>
   </si>
   <si>
     <t>Comidas a medio dia, etc</t>
-  </si>
-  <si>
-    <t>A calcular</t>
   </si>
   <si>
     <t>Marca</t>
@@ -299,6 +289,120 @@
   </si>
   <si>
     <t>TOTAL real</t>
+  </si>
+  <si>
+    <t>Destinación</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Gasolina (L)</t>
+  </si>
+  <si>
+    <t>Gasolina (Precio)</t>
+  </si>
+  <si>
+    <t>Paga</t>
+  </si>
+  <si>
+    <t>Alacant</t>
+  </si>
+  <si>
+    <t>Algeciras</t>
+  </si>
+  <si>
+    <t>Distancia (Km)</t>
+  </si>
+  <si>
+    <t>Tiempo (h)</t>
+  </si>
+  <si>
+    <t>6 29'</t>
+  </si>
+  <si>
+    <t>peaje</t>
+  </si>
+  <si>
+    <t>Tanger</t>
+  </si>
+  <si>
+    <t>Meknes</t>
+  </si>
+  <si>
+    <t>3 41'</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Total trayecto</t>
+  </si>
+  <si>
+    <t>Bni Tadjite</t>
+  </si>
+  <si>
+    <t>5 7'</t>
+  </si>
+  <si>
+    <t>Tazzougert</t>
+  </si>
+  <si>
+    <t>1 6'</t>
+  </si>
+  <si>
+    <t>Erg Chebbi</t>
+  </si>
+  <si>
+    <t>2 13'</t>
+  </si>
+  <si>
+    <t>Mahre</t>
+  </si>
+  <si>
+    <t>Maraton</t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>8 41'</t>
+  </si>
+  <si>
+    <t>Nosotros en el coche?? En un remolque?? Gasolina</t>
+  </si>
+  <si>
+    <t>Pegatinas</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Charlas</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>Reparación</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Patrocinadores</t>
+  </si>
+  <si>
+    <t>Merchandaising</t>
+  </si>
+  <si>
+    <t>Blog</t>
   </si>
 </sst>
 </file>
@@ -628,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -652,16 +756,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -977,9 +1082,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BFAF8A-A11B-4F7B-8DDC-92AA48C4A0E8}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -998,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -1018,8 +1125,8 @@
       <c r="C2" s="2">
         <v>400</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1033,8 +1140,8 @@
         <f>1890-C2</f>
         <v>1490</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1154,8 @@
       <c r="C4" s="2">
         <v>600</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1061,10 +1168,10 @@
       <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,8 +1182,8 @@
       <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1089,53 +1196,57 @@
       <c r="C7" s="2">
         <v>1000</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>150</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+        <f>150+300</f>
+        <v>450</v>
+      </c>
+      <c r="D9" s="20">
+        <f>Transporte!K16</f>
+        <v>209.45929999999998</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="F9" s="8" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
         <v>300</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <f>'Equipamiento Coche'!C28</f>
         <v>1246</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <f>'Equipamiento Coche'!D28</f>
         <v>0</v>
       </c>
@@ -1143,58 +1254,44 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>300</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+        <v>150</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>150</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="13">
-        <f>SUM(C2:C12)</f>
+      <c r="B13" s="24"/>
+      <c r="C13" s="13">
+        <f>SUM(C2:C11)</f>
         <v>4740</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="12"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="Coche!A1" display="Coche" xr:uid="{6B68FAC1-0A7A-4EAD-8858-87DADE364AC6}"/>
@@ -1204,9 +1301,8 @@
     <hyperlink ref="A8" location="Marketing!A1" display="Vinilos" xr:uid="{A12D3BF7-A76A-4BE9-9937-66B2CBB36B6C}"/>
     <hyperlink ref="A9" location="Transporte!A1" display="Transporte" xr:uid="{21A325D4-5E04-4E30-B776-D3C7D8497E4D}"/>
     <hyperlink ref="A10" location="'Equipamiento Coche'!A1" display="Equipamiento coche" xr:uid="{1AD6E32D-7255-4FD6-8BD5-0D73E1991EE4}"/>
-    <hyperlink ref="A11" location="Gasolina!A1" display="Gasolina" xr:uid="{D9644222-3E5E-44A3-BDEE-5436FB95F46A}"/>
-    <hyperlink ref="A12" location="Manutención!A1" display="Manutención" xr:uid="{66290544-57A9-4F96-8A79-0B768093813E}"/>
-    <hyperlink ref="A13" location="'Proyecto solidario'!A1" display="Proyecto Solidario" xr:uid="{F6242885-F932-4694-ABC0-A14F8A9B818D}"/>
+    <hyperlink ref="A11" location="Manutención!A1" display="Manutención" xr:uid="{66290544-57A9-4F96-8A79-0B768093813E}"/>
+    <hyperlink ref="A12" location="'Proyecto solidario'!A1" display="Proyecto Solidario" xr:uid="{F6242885-F932-4694-ABC0-A14F8A9B818D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1214,27 +1310,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12FA95D-8730-4FC4-8F06-9FF85F8E62C4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Coste TOTAL'!A1" display="Coste TOTAL" xr:uid="{B17C3924-276F-4F8D-8EFD-20A51DF3B0C6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60029777-70F4-45FA-875E-A3652508AD14}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1244,7 +1319,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B91F7E-FBAD-46C7-A681-762405B44D88}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1269,53 +1344,53 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
       <c r="G3">
         <v>1988</v>
@@ -1326,22 +1401,22 @@
     </row>
     <row r="4" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>1995</v>
@@ -1352,16 +1427,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>665191138</v>
@@ -1391,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1487,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1425,17 +1500,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0061F2D-3EFE-4AA8-8C50-DBC1B8D7262C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1448,20 +1537,245 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE5C29-D1F3-498C-8765-87A77BD172BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>SUM(B17:J17)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Coste TOTAL'!A1" display="Coste TOTAL" xr:uid="{129ABC67-B50E-4BDD-8670-9D61B18146DE}"/>
+    <hyperlink ref="B1" location="'Coste TOTAL'!A1" display="Coste TOTAL" xr:uid="{129ABC67-B50E-4BDD-8670-9D61B18146DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1469,15 +1783,384 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F527EF-DAEA-48D4-BC5A-2434137A249B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>43875</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2">
+        <v>656</v>
+      </c>
+      <c r="F3" s="2">
+        <f>6.5*E3/100</f>
+        <v>42.64</v>
+      </c>
+      <c r="G3" s="2">
+        <f>1.45*F3</f>
+        <v>61.827999999999996</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="K3" s="8">
+        <f>SUM(G3,J3)</f>
+        <v>78.677999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>43876</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2">
+        <v>265</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F10" si="0">6.5*E4/100</f>
+        <v>17.225000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G10" si="1">1.45*F4</f>
+        <v>24.97625</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="8">
+        <f>SUM(G4,J4)</f>
+        <v>24.97625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>43877</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2">
+        <v>363</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>23.594999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>34.21275</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K10" si="2">SUM(G5,J5)</f>
+        <v>34.21275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>43878</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5740000000000003</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7323000000000004</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="8">
+        <f t="shared" si="2"/>
+        <v>3.7323000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>43879</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>10.53</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>15.268499999999998</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="8">
+        <f t="shared" si="2"/>
+        <v>15.268499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>43880</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="2">
+        <v>558</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>36.270000000000003</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>52.591500000000003</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8">
+        <f t="shared" si="2"/>
+        <v>52.591500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12">
+        <f>SUM(K3:K15)</f>
+        <v>209.45929999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E84D5B8-BDE6-40AC-88AB-28FD121D3B6F}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1504,7 +2187,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,18 +2198,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1540,7 +2223,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1554,7 +2237,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1568,7 +2251,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1581,7 +2264,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1594,7 +2277,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1608,7 +2291,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1621,7 +2304,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1635,7 +2318,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -1649,7 +2332,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1662,7 +2345,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1675,7 +2358,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1686,7 +2369,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1700,7 +2383,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1714,7 +2397,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1725,12 +2408,12 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1740,12 +2423,12 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1755,12 +2438,12 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1770,12 +2453,12 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -1785,12 +2468,12 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -1801,12 +2484,12 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1816,12 +2499,12 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1831,12 +2514,12 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1849,7 +2532,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1862,7 +2545,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1872,7 +2555,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,7 +2585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A0D20-167D-4B5A-B3EA-A953E7035F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12FA95D-8730-4FC4-8F06-9FF85F8E62C4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1911,12 +2594,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Coste TOTAL'!A1" display="Coste TOTAL" xr:uid="{CBF99E39-29A3-4D33-B125-086BF0BA0792}"/>
+    <hyperlink ref="A1" location="'Coste TOTAL'!A1" display="Coste TOTAL" xr:uid="{B17C3924-276F-4F8D-8EFD-20A51DF3B0C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Coste_Proyecto.xlsx
+++ b/Coste_Proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\césure\Uniraid\UniR20 JS-BV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA3E36-89E6-4C3E-8560-1F70CA114409}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76BD70-C845-4C37-83E8-354749641D68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0252D24D-8C4E-46DC-8752-B88423AA2B2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{0252D24D-8C4E-46DC-8752-B88423AA2B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Coste TOTAL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
   <si>
     <t>Item</t>
   </si>
@@ -404,12 +404,89 @@
   <si>
     <t>Blog</t>
   </si>
+  <si>
+    <t>minimo 6 m</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>5 L</t>
+  </si>
+  <si>
+    <t>Varias cintas tensoras de carraca</t>
+  </si>
+  <si>
+    <t>Dicho material será entregado por cada equipo directamente a los alumnos y profesores de varias escuelas del
+desierto del sur de Marruecos.
+Dicho material no puede incluir medicamentos, libros de texto o alimentos.</t>
+  </si>
+  <si>
+    <t>A) 10 kg que deberán quedarse en el coche del equipo.</t>
+  </si>
+  <si>
+    <t>B) El resto del Material Solidario, que será transportado por la Organización.</t>
+  </si>
+  <si>
+    <t>Para poder utilizar este servicio de transporte, el material solidario deberá estar debidamente acondicionado e</t>
+  </si>
+  <si>
+    <t>identificado (con el dorsal y nombre de cada equipo).</t>
+  </si>
+  <si>
+    <t>Dicho material (B) será entregado por cada equipo directamente a los alumnos y profesores de varias escuelas, en el</t>
+  </si>
+  <si>
+    <t>Campamento de la Etapa 1.</t>
+  </si>
+  <si>
+    <t>Para otras emisoras tipo walky, consultar a la organización (info@uniraid.org)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teléfono móvil tipo Smartphone con sistema operativo Android o IOS, con un cable de alimentación USB.
+Dicho smartphone debe cumplir los siguientes requisitos mínimos:
+- Terminal libre (no vinculado a ningún operador de telefonía. Se instalará SIM de un operador
+marroquí, facilitada por la Organización)
+- Android 5 o superior / Iphone 5 o superior
+- 2 GB de memoria RAM
+- Con GPS y Brújula integrada
+- Deberá disponer de un mínimo de memoria interna libre de 500 Mbytes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No está permitido el uso de dispositivos GPS (incluidos ordenadores, dispositivos móviles, tablets, pda..).</t>
+    </r>
+  </si>
+  <si>
+    <t>Recordar que estamos en el desierto, por lo que conviene ir bebiendo agua con regularidad.
+- Conviene utilizar un gorro y filtro solar.
+- Las gafas de sol, son muy útiles.
+- Un botiquín con lo más básico:
+Un colirio (los ojos sufren bastante en un ambiente polvoriento)
+Tiritas
+Esparadrapo y vendas
+Antiséptico
+Manta térmica
+Analgésicos (Paracetamol )
+Antidiarreicos (Fortasec)</t>
+  </si>
+  <si>
+    <t>Parasol delantero y trasero. Ancho = 10 cm
+- Dorsales ( 1 en cada puerta delantera), Medidas = 40cm x 25cm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +522,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -460,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -727,12 +811,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -760,13 +883,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1084,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BFAF8A-A11B-4F7B-8DDC-92AA48C4A0E8}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,11 +1372,11 @@
         <v>300</v>
       </c>
       <c r="D10" s="20">
-        <f>'Equipamiento Coche'!C28</f>
+        <f>'Equipamiento Coche'!C30</f>
         <v>1246</v>
       </c>
       <c r="E10" s="20">
-        <f>'Equipamiento Coche'!D28</f>
+        <f>'Equipamiento Coche'!D30</f>
         <v>0</v>
       </c>
       <c r="F10" s="7"/>
@@ -1277,10 +1406,10 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="13">
         <f>SUM(C2:C11)</f>
         <v>4740</v>
@@ -1311,15 +1440,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60029777-70F4-45FA-875E-A3652508AD14}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1500,20 +1664,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0061F2D-3EFE-4AA8-8C50-DBC1B8D7262C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L5:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1525,6 +1689,11 @@
       </c>
       <c r="D2" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="I5" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +2004,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>43875</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1869,7 +2038,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>43876</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1903,7 +2072,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>43877</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1935,7 +2104,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>43878</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1967,7 +2136,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>43879</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1999,7 +2168,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>43880</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2173,9 +2342,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E84D5B8-BDE6-40AC-88AB-28FD121D3B6F}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2208,306 +2379,307 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="28">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <f>90*B3</f>
-        <v>180</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <f>12*B4</f>
-        <v>24</v>
+        <f>90*B4</f>
+        <v>180</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f>6*B5</f>
-        <v>12</v>
+        <f>12*B5</f>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <f>6*B6</f>
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <f>15*B8</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>13</v>
+        <f>15*B9</f>
+        <v>30</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
         <f>50*2</f>
         <v>100</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <f>140*2</f>
         <v>280</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>50</v>
-      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <f>12*B16</f>
-        <v>24</v>
-      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <f>12*B17</f>
+        <v>24</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <f>9*1</f>
         <v>9</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
         <f>15*2</f>
         <v>30</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>25</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <v>25</v>
@@ -2517,70 +2689,101 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>12</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="11">
-        <f>SUM(B3:B27)</f>
+      <c r="B30" s="11">
+        <f>SUM(B4:B29)</f>
         <v>38</v>
       </c>
-      <c r="C28" s="11">
-        <f>SUM(C3:C27)</f>
+      <c r="C30" s="11">
+        <f>SUM(C4:C29)</f>
         <v>1246</v>
       </c>
-      <c r="D28" s="11">
-        <f>SUM(D3:D27)</f>
+      <c r="D30" s="11">
+        <f>SUM(D4:D29)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E30" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="'Coste TOTAL'!A1" display="Coste TOTAL" xr:uid="{E62CEBF3-AFD1-4F5B-9870-3ADC2E2CCCCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Coste_Proyecto.xlsx
+++ b/Coste_Proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\césure\Uniraid\UniR20 JS-BV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76BD70-C845-4C37-83E8-354749641D68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31243A7D-19A9-412E-A758-E19310EF511E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{0252D24D-8C4E-46DC-8752-B88423AA2B2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{0252D24D-8C4E-46DC-8752-B88423AA2B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Coste TOTAL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
   <si>
     <t>Item</t>
   </si>
@@ -480,6 +480,96 @@
   <si>
     <t>Parasol delantero y trasero. Ancho = 10 cm
 - Dorsales ( 1 en cada puerta delantera), Medidas = 40cm x 25cm</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Eco vasos</t>
+  </si>
+  <si>
+    <t>Sant Llorenç</t>
+  </si>
+  <si>
+    <t>Salir en el Programa y en los vasos</t>
+  </si>
+  <si>
+    <t>Rally La nucia</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>C Automob Costablanca</t>
+  </si>
+  <si>
+    <t>Ajunt. Benimantell</t>
+  </si>
+  <si>
+    <t>Ajunt. Guadalest</t>
+  </si>
+  <si>
+    <t>Charla</t>
+  </si>
+  <si>
+    <t>Vasos (1000 uds)</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>1000  60 euros</t>
+  </si>
+  <si>
+    <t>Museu de les motos</t>
+  </si>
+  <si>
+    <t>Ca Rafel</t>
+  </si>
+  <si>
+    <t>Sopar</t>
+  </si>
+  <si>
+    <t>Afect, xyleia fastidiosa</t>
+  </si>
+  <si>
+    <t>Ruchey</t>
+  </si>
+  <si>
+    <t>Ajunt Callosa</t>
+  </si>
+  <si>
+    <t>Frutas el juaito</t>
+  </si>
+  <si>
+    <t>Almedia</t>
+  </si>
+  <si>
+    <t>Cole Benimantell</t>
+  </si>
+  <si>
+    <t>Tienda de productos de motor</t>
+  </si>
+  <si>
+    <t>Delfin</t>
+  </si>
+  <si>
+    <t>Masos</t>
+  </si>
+  <si>
+    <t>Lo del dron de Emilio</t>
+  </si>
+  <si>
+    <t>Con empresas:</t>
+  </si>
+  <si>
+    <t>Hacerles un pequeño video (precio cerrado), publicarlo en nuestras redes,</t>
+  </si>
+  <si>
+    <t>lo dels xiquets juguets, tallers.</t>
+  </si>
+  <si>
+    <t>asociació saharaui de Pilar</t>
   </si>
 </sst>
 </file>
@@ -544,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -850,12 +940,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -884,18 +985,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1214,7 +1316,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,10 +1508,10 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="13">
         <f>SUM(C2:C11)</f>
         <v>4740</v>
@@ -1440,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60029777-70F4-45FA-875E-A3652508AD14}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1556,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B2" t="s">
@@ -1484,6 +1586,16 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0061F2D-3EFE-4AA8-8C50-DBC1B8D7262C}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L5:L10"/>
     </sheetView>
   </sheetViews>
@@ -1692,7 +1804,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1706,71 +1818,96 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE5C29-D1F3-498C-8765-87A77BD172BA}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1778,36 +1915,69 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1815,10 +1985,13 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1827,94 +2000,164 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1923,10 +2166,13 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1935,16 +2181,33 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J18">
-        <f>SUM(B17:J17)</f>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18">
+        <f>SUM(C17:K17)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'Coste TOTAL'!A1" display="Coste TOTAL" xr:uid="{129ABC67-B50E-4BDD-8670-9D61B18146DE}"/>
+    <hyperlink ref="C1" location="'Coste TOTAL'!A1" display="Coste TOTAL" xr:uid="{129ABC67-B50E-4BDD-8670-9D61B18146DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2379,15 +2642,15 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2613,7 +2876,7 @@
       <c r="E19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
